--- a/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8880228592750539</v>
+        <v>0.8882984561459017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9059089401651933</v>
+        <v>0.9061339715621313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9052826136393139</v>
+        <v>0.9051706148652747</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9378081186613982</v>
+        <v>0.9383659954388546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9425024071339655</v>
+        <v>0.9420414701779406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.935284672225672</v>
+        <v>0.9349683683848208</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8757696940458933</v>
+        <v>0.8757696940458932</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9011127398944414</v>
+        <v>0.9011127398944412</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8885639570073403</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8504718536623431</v>
+        <v>0.8499549694092031</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8825913614464409</v>
+        <v>0.8829941356921528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8741324288880643</v>
+        <v>0.8721352346276476</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.900654000729429</v>
+        <v>0.8966121086799901</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9164293841622523</v>
+        <v>0.9158894538641559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9045406230975784</v>
+        <v>0.9017248724239462</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7412852875509219</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8242998317227008</v>
+        <v>0.8242998317227009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.782986273825734</v>
+        <v>0.7829862738257339</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7031192242914296</v>
+        <v>0.7050579601703636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7963182478097601</v>
+        <v>0.7966284669787871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7559005692152901</v>
+        <v>0.7599699488905755</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7762997569362355</v>
+        <v>0.7739166367926874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8473815976195425</v>
+        <v>0.8468379738840688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8013978523658187</v>
+        <v>0.8067458208112401</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8244663932329649</v>
+        <v>0.8220722465097622</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8398786305934137</v>
+        <v>0.8417970260430944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8395335567243092</v>
+        <v>0.8392729627219532</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8742168217638985</v>
+        <v>0.8731283322943697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8792736617380126</v>
+        <v>0.8778378279543847</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8726665296362811</v>
+        <v>0.8691898054070311</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>610844</v>
+        <v>611034</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>659154</v>
+        <v>659318</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1281416</v>
+        <v>1281257</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>645090</v>
+        <v>645474</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>685780</v>
+        <v>685444</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1323883</v>
+        <v>1323436</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>887791</v>
+        <v>887252</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>939344</v>
+        <v>939772</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1842831</v>
+        <v>1838621</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>940176</v>
+        <v>935956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>975358</v>
+        <v>974783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1906937</v>
+        <v>1901001</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>560365</v>
+        <v>561910</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>640593</v>
+        <v>640843</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1210511</v>
+        <v>1217027</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>618688</v>
+        <v>616788</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>681671</v>
+        <v>681234</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1283371</v>
+        <v>1291935</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>810280</v>
+        <v>807927</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>931220</v>
+        <v>933347</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1755924</v>
+        <v>1755379</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>859174</v>
+        <v>858104</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>974899</v>
+        <v>973307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1825223</v>
+        <v>1817951</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
     </row>
     <row r="24">
